--- a/biology/Médecine/1833_en_santé_et_médecine/1833_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1833_en_santé_et_médecine/1833_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1833_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1833_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1832 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1833_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1833_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>William Beaumont : Experiments and Observations on the Gastric Juice and the Physiology of Digestion.
 Jean Lobstein : Traité d'anatomie pathologique. Il crée les termes artériosclérose et ostéoporose.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1833_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1833_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +557,15 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>16 janvier : Jules de Seynes (mort en 1912), médecin, botaniste et mycologue français[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>16 janvier : Jules de Seynes (mort en 1912), médecin, botaniste et mycologue français.
 18 janvier : Clovis Thorel (mort en 1911), médecin, botaniste et explorateur français.
-4 avril : Gustave Liétard (mort en 1904), médecin français[2].
+4 avril : Gustave Liétard (mort en 1904), médecin français.
 10 mai : Antoine-Hippolyte Cros (mort en 1903), médecin et homme de lettres français, et « roi » d'Araucanie et de Patagonie.
-19 mai : Alphonse-Charles Gayet (mort en 1904), chirurgien français[3].
+19 mai : Alphonse-Charles Gayet (mort en 1904), chirurgien français.
 4 octobre : John Anderson (mort en 1900), médecin et naturaliste écossais.
 12 novembre : Alexandre Borodine (mort en 1887), compositeur, chimiste et médecin russe.
 26 novembre : Georges Dujardin-Beaumetz (mort en 1895), médecin hygiéniste français.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1833_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1833_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>25 novembre : Alexis Boyer (né en 1757), anatomiste et chirurgien français.</t>
         </is>
